--- a/CH-039 Transformation.xlsx
+++ b/CH-039 Transformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022169D4-40A8-45F9-A8DE-747F15C64D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6658C40D-CC4E-402D-9FD4-B065C5B46144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>P-1046</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>P-1157</t>
+  </si>
+  <si>
+    <t>I am surprised they had a problem so simple</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1079,7 @@
   <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1099,6 +1102,9 @@
       <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
